--- a/biology/Microbiologie/Acantharia/Acantharia.xlsx
+++ b/biology/Microbiologie/Acantharia/Acantharia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Acanthaires (Acantharia ou Acantharea selon les sources) sont l'un des trois groupes d'Actinopodes avec les Radiolaires et les Héliozoaires. Leur test est essentiellement constitué de célestine (matière organique et sulfate de strontium).
 Ce sont des organismes unicellulaires dont le cytoplasme comprend l'endoplasme central granuleux et polynucléaire et l’ectoplasme périphérique qui émet des pseudopodes porteurs d'algues symbiotiques (les zooxanthelles). Cependant cette relation de symbiose entre l’algue et le protozoaire est remise en cause par des chercheurs de la Station biologique de Roscoff (CNRS/Université Pierre et Marie Curie Paris 6). Les chercheurs ont en effet constaté que lorsque les algues sont à l'intérieur de l'acanthaire, elles changent d'aspect par rapport à leur vie libre. L'hypothèse est que l'acanthaire empêcherait l'algue de se diviser, mais permettrait en revanche la multiplication de ses chloroplastes, où se déroule la photosynthèse. Ainsi, l'acanthaire pourrait récupérer du carbone lorsque nécessaire en "volant" quelques cellules au sein d'immenses populations d'algues qui vivent très bien sous forme libre. Reste à démontrer les mécanismes précis de cette hypothétique "cytokleptie", d’où l’hypothèse d'un rapport de commensalisme et non symbiotique. 
@@ -514,6 +526,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -539,9 +553,11 @@
           <t>Liste des ordres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Register of Marine Species                               (8 août 2019)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Register of Marine Species                               (8 août 2019) :
 ordre des Acantharia incertae sedis
 ordre des Acanthonida Haeckel, 1881
 ordre des Arthracanthida Schewiakoff, 1926
